--- a/sprint-54/18-bugfix-89591-avg-modelo762-canon-avg/InvestigarTotales/[Especificaciones Tecnicas]762_AVG.xlsx
+++ b/sprint-54/18-bugfix-89591-avg-modelo762-canon-avg/InvestigarTotales/[Especificaciones Tecnicas]762_AVG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gdesousa\SPRINTS\[20230613]AVG_CanonAnual762\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gdesousa\Sacyr\acuama-iteraciones\sprint-54\18-bugfix-89591-avg-modelo762-canon-avg\InvestigarTotales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18D15F9-08C1-4265-B733-AC72AD1F43F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CAE052-2850-4055-A95B-AC4D3F5EC665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-55035" yWindow="-4320" windowWidth="23205" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="95970" yWindow="2100" windowWidth="30015" windowHeight="18195" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de Inicio (I)" sheetId="3" r:id="rId1"/>
@@ -392,6 +392,47 @@
     <author>Guly Mary De Sousa Garrido</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{95938F2A-6DAD-438E-AA70-2FEEBE50C40C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Contendrá el carácter ‘F’</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C79AF1A1-D35A-4330-B1A0-3B2D1449108D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Identificador del contrato. Debe ser el mismo
+código de contrato que se ha utilizado para
+cumplimentar el correspondiente registro de
+“contratos”.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F1" authorId="0" shapeId="0" xr:uid="{949920E0-F560-4624-A288-9340AD0A1AF8}">
       <text>
         <r>
@@ -436,6 +477,140 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> - Los días facturados en el periodo tarifario 1 no coinciden con los días delprimer periodo tarifario.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{649E4242-55CB-4FC2-A6EF-86B8A49DE881}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Campo numérico con el volumen total de agua que se ha abastecido en el periodo facturado. 
+La unidad de medida será el m3 y no se contemplarán decimales.
+Este campo solo será opcional cuando no haya existido abastecimiento, es decir, cuando no se haya producido ningún consumo, o cuando solo
+se preste servicio de saneamiento.
+En el caso de que se indique en la factura que se ha producido una fuga de agua, en este campo deberá indicarse el consumo real.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{3EC9D4DF-8D34-459D-B7A5-174BEA16DEBF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Campo numérico con el importe facturado en
+concepto de cuota fija. 
+Se usarán dos decimales.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Solo se cumplimentará </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>en registros cuyo correspondiente registro de contratos, tenga definido</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> uso doméstico.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{E7CC6D4B-6281-44E2-8ED3-256DF3DEBF91}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Campo numérico con el importe facturado en concepto de cuota variable. Se usarán dos
+decimales.
+Si el uso es doméstico, debe coincidir con la suma de los tres campos de cuota variable de tramo, </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>más el de fugas si fuera el caso.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{C10FADB1-C808-40CB-ACAA-89570E953D44}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Campo numérico con el importe total facturado.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Se usarán dos decimales.
+Debe coincidir con la suma de la Cuota fija más la Cuota variable total menos el Importe Disp. Transitoria 7ª.2</t>
         </r>
       </text>
     </comment>
@@ -444,7 +619,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="114">
   <si>
     <t>Cuota variable total</t>
   </si>
@@ -822,6 +997,9 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>Tipo de registro (F)</t>
   </si>
 </sst>
 </file>
@@ -1294,13 +1472,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C015374-1473-4686-9816-0CBA2578DC8D}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="32.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -1359,7 +1537,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>85</v>
       </c>
@@ -1404,7 +1582,7 @@
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1425,7 +1603,7 @@
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1446,7 +1624,7 @@
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>89</v>
       </c>
@@ -1505,7 +1683,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>85</v>
       </c>
@@ -1578,9 +1756,9 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1640,20 +1818,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AK14" sqref="AK14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.36328125" customWidth="1"/>
-    <col min="55" max="55" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="55" max="55" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="5" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:55" s="5" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
